--- a/python_memo.xlsx
+++ b/python_memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13665" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="361">
   <si>
     <t>1. python インストール先確認</t>
     <rPh sb="16" eb="17">
@@ -3828,6 +3828,22 @@
   </si>
   <si>
     <t>python -m django --version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sphinx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.python.ambitious-engineer.com/archives/925#i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install sphinx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キュメントを生成するライブラリ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5558,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5672,10 +5688,18 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2"/>
@@ -5749,9 +5773,10 @@
     <hyperlink ref="E7" r:id="rId1"/>
     <hyperlink ref="E6" r:id="rId2"/>
     <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="D15" r:id="rId4" location="i"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5786,7 +5811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>

--- a/python_memo.xlsx
+++ b/python_memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13665" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13665" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="django" sheetId="5" r:id="rId5"/>
     <sheet name="jedi-vim" sheetId="6" r:id="rId6"/>
+    <sheet name="github command" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="424">
   <si>
     <t>1. python インストール先確認</t>
     <rPh sb="16" eb="17">
@@ -656,43 +657,6 @@
   </si>
   <si>
     <t>4. Create the django project</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>python -m venv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [ProjectName]   </t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3846,12 +3810,568 @@
     <t>キュメントを生成するライブラリ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>もし githubにrepoを新規作成した場合</t>
+    <rPh sb="15" eb="17">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記内容を自動作成</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…or create a new repository on the command line</t>
+  </si>
+  <si>
+    <t>$ git --version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo "# hulpy" &gt;&gt; README.md</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示できれば、OK</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>なければ、　yum --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git add README.md</t>
+  </si>
+  <si>
+    <t>git commit -m "first commit"</t>
+  </si>
+  <si>
+    <t>Proxy Setting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git remote add origin https://USERNAME@github.com/USERNAME/REPO.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>git config --global http.proxy http://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hostname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portno</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+  </si>
+  <si>
+    <r>
+      <t>git config --global https.proxy http://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hostname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portno</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…or push an existing repository from the command line</t>
+  </si>
+  <si>
+    <t>User Name Setting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git config --global user.name "Your Name"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…or import code from another repository</t>
+  </si>
+  <si>
+    <t>git config --global user.email you@example.com</t>
+  </si>
+  <si>
+    <t>You can initialize this repository with code from a Subversion, Mercurial, or TFS project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git config --list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remote Setting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>git remote add origin https://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USERNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REPO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>git remote set-url origin https://USERNAME@github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USERNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REPO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if (gnome-ssh-askpass:29286): Gtk-WARNING **: cannot open display: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/ma2saka/items/0c948a5bc13581c251f7</t>
+  </si>
+  <si>
+    <t>$ echo $SSH_ASKPASS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ unset SSH_ASKPASS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create .gitignore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ touch .gitignore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edit the .gitignore File.  See this URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/github/gitignore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#コミットするファイルを追加</t>
+  </si>
+  <si>
+    <t>&gt; git add [ファイル1] [ファイル2] ･･･</t>
+  </si>
+  <si>
+    <t># 一括で登録する時</t>
+  </si>
+  <si>
+    <t>&gt; git add [-A | -u | .]</t>
+  </si>
+  <si>
+    <t>#gitへのコミット</t>
+  </si>
+  <si>
+    <t>&gt; git commit [-a] [-m "コミットメッセージ"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git add -A 新規作成/変更/削除されたファイル全てを追加(AllのA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git add -u 変更/削除されたファイルを追加。新規作成は対象外。(updateのu)</t>
+  </si>
+  <si>
+    <t>git add . 新規作成/変更されたファイルを追加。削除は対象外。</t>
+  </si>
+  <si>
+    <t>間違ってコミットした場合は、git resetで取り消せる。</t>
+  </si>
+  <si>
+    <t>&gt; git reset [--soft | --hard] [対象]</t>
+  </si>
+  <si>
+    <t>#使用例</t>
+  </si>
+  <si>
+    <t>&gt; git reset --hard HEAD^</t>
+  </si>
+  <si>
+    <t>#再コミット</t>
+  </si>
+  <si>
+    <t>&gt; git commit [-a] -c ORIG_HEAD</t>
+  </si>
+  <si>
+    <t>プッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> git push -u origin master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git hubへpush一般動作</t>
+    <rPh sb="12" eb="14">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSHを確認　</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常を発生の恐れ、unset</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git add -A                   新規作成/変更/削除されたファイル全てを追加(AllのA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git commit -m "コミットメッセージ"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> git push -u origin master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>python -m venv</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [ProjectName]   </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git stash save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/fukajun/items/41288806e4733cb9c342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git pull origin master</t>
+  </si>
+  <si>
+    <t>git fetch origin master</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git reset --mixed HEAD</t>
+  </si>
+  <si>
+    <t>Other Git Command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/shuntaro_tamura/items/db1aef9cf9d78db50ffe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4244,6 +4764,50 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4360,7 +4924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4515,6 +5079,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5189,7 +5768,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="B61" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5207,7 +5786,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J65" t="s">
         <v>80</v>
@@ -5282,7 +5861,7 @@
         <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5431,7 +6010,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5445,7 +6024,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5456,92 +6035,92 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -5551,12 +6130,12 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5574,8 +6153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5599,7 +6178,7 @@
     </row>
     <row r="6" spans="2:6" ht="94.5">
       <c r="B6" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -5611,7 +6190,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="81">
@@ -5628,7 +6207,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -5689,16 +6268,16 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -5811,15 +6390,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5837,7 +6416,7 @@
         <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -5845,7 +6424,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -5853,7 +6432,7 @@
         <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -5861,7 +6440,7 @@
         <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -5875,13 +6454,13 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" t="s">
+      <c r="B13" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="16" t="s">
-        <v>110</v>
+      <c r="B14" s="56" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -5891,22 +6470,22 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="17.25">
       <c r="B22" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16.5">
       <c r="C23" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -5917,7 +6496,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="C24" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -5928,7 +6507,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="C25" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -5939,7 +6518,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="C26" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -5950,17 +6529,17 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="17.25">
       <c r="B29" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15">
       <c r="C30" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -5971,7 +6550,7 @@
     </row>
     <row r="31" spans="2:9" ht="15">
       <c r="C31" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -5982,7 +6561,7 @@
     </row>
     <row r="32" spans="2:9" ht="15">
       <c r="C32" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -5993,7 +6572,7 @@
     </row>
     <row r="33" spans="2:9" ht="15">
       <c r="C33" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -6004,7 +6583,7 @@
     </row>
     <row r="34" spans="2:9" ht="15">
       <c r="C34" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -6015,7 +6594,7 @@
     </row>
     <row r="35" spans="2:9" ht="15">
       <c r="C35" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -6026,172 +6605,172 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.75">
       <c r="B41" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.75">
       <c r="B43" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="C44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="D45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="C65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="C66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="C68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="C69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="C70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="C72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="C73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="C74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="D76" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15">
       <c r="B80" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="15">
       <c r="C85" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -6202,7 +6781,7 @@
     </row>
     <row r="86" spans="2:9" ht="15">
       <c r="C86" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
@@ -6213,7 +6792,7 @@
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="C87" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
@@ -6224,7 +6803,7 @@
     </row>
     <row r="88" spans="2:9" ht="15">
       <c r="C88" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -6235,7 +6814,7 @@
     </row>
     <row r="89" spans="2:9" ht="15">
       <c r="C89" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
@@ -6246,7 +6825,7 @@
     </row>
     <row r="90" spans="2:9" ht="15">
       <c r="C90" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
@@ -6257,7 +6836,7 @@
     </row>
     <row r="91" spans="2:9" ht="15">
       <c r="C91" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
@@ -6268,7 +6847,7 @@
     </row>
     <row r="92" spans="2:9" ht="15">
       <c r="C92" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -6279,7 +6858,7 @@
     </row>
     <row r="93" spans="2:9" ht="15">
       <c r="C93" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
@@ -6290,7 +6869,7 @@
     </row>
     <row r="94" spans="2:9" ht="15">
       <c r="C94" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
@@ -6301,12 +6880,12 @@
     </row>
     <row r="98" spans="2:10">
       <c r="B98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="16.5">
       <c r="C100" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="26"/>
@@ -6318,7 +6897,7 @@
     </row>
     <row r="101" spans="2:10">
       <c r="C101" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
@@ -6330,7 +6909,7 @@
     </row>
     <row r="102" spans="2:10">
       <c r="C102" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
@@ -6352,7 +6931,7 @@
     </row>
     <row r="104" spans="2:10">
       <c r="C104" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -6364,7 +6943,7 @@
     </row>
     <row r="105" spans="2:10">
       <c r="C105" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
@@ -6376,7 +6955,7 @@
     </row>
     <row r="106" spans="2:10">
       <c r="C106" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
@@ -6388,7 +6967,7 @@
     </row>
     <row r="107" spans="2:10">
       <c r="C107" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
@@ -6400,7 +6979,7 @@
     </row>
     <row r="108" spans="2:10">
       <c r="C108" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
@@ -6412,7 +6991,7 @@
     </row>
     <row r="109" spans="2:10">
       <c r="C109" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
@@ -6434,7 +7013,7 @@
     </row>
     <row r="111" spans="2:10">
       <c r="C111" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
@@ -6446,7 +7025,7 @@
     </row>
     <row r="112" spans="2:10">
       <c r="C112" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
@@ -6458,7 +7037,7 @@
     </row>
     <row r="113" spans="2:10">
       <c r="C113" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
@@ -6480,7 +7059,7 @@
     </row>
     <row r="115" spans="2:10">
       <c r="C115" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -6492,7 +7071,7 @@
     </row>
     <row r="116" spans="2:10">
       <c r="C116" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
@@ -6514,17 +7093,17 @@
     </row>
     <row r="120" spans="2:10">
       <c r="B120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="C121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="16.5">
       <c r="C123" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -6533,7 +7112,7 @@
     </row>
     <row r="124" spans="2:10" ht="16.5">
       <c r="C124" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
@@ -6542,7 +7121,7 @@
     </row>
     <row r="125" spans="2:10" ht="16.5">
       <c r="C125" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
@@ -6551,7 +7130,7 @@
     </row>
     <row r="126" spans="2:10" ht="16.5">
       <c r="C126" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
@@ -6560,7 +7139,7 @@
     </row>
     <row r="129" spans="2:7" ht="16.5">
       <c r="C129" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
@@ -6569,7 +7148,7 @@
     </row>
     <row r="130" spans="2:7" ht="16.5">
       <c r="C130" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -6578,7 +7157,7 @@
     </row>
     <row r="131" spans="2:7" ht="16.5">
       <c r="C131" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
@@ -6587,7 +7166,7 @@
     </row>
     <row r="132" spans="2:7" ht="16.5">
       <c r="C132" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
@@ -6596,7 +7175,7 @@
     </row>
     <row r="133" spans="2:7" ht="16.5">
       <c r="C133" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
@@ -6605,12 +7184,12 @@
     </row>
     <row r="136" spans="2:7">
       <c r="B136" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="16.5">
       <c r="C138" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="35"/>
@@ -6619,7 +7198,7 @@
     </row>
     <row r="139" spans="2:7">
       <c r="C139" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -6628,7 +7207,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="C140" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
@@ -6644,7 +7223,7 @@
     </row>
     <row r="142" spans="2:7">
       <c r="C142" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
@@ -6653,7 +7232,7 @@
     </row>
     <row r="143" spans="2:7">
       <c r="C143" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -6662,12 +7241,12 @@
     </row>
     <row r="146" spans="2:9">
       <c r="B146" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="16.5">
       <c r="C148" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -6677,22 +7256,22 @@
     </row>
     <row r="150" spans="2:9">
       <c r="C150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="2:9">
       <c r="D151" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="2:9">
       <c r="B153" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="2:9">
       <c r="C155" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
@@ -6703,7 +7282,7 @@
     </row>
     <row r="156" spans="2:9">
       <c r="C156" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
@@ -6714,7 +7293,7 @@
     </row>
     <row r="157" spans="2:9">
       <c r="C157" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
@@ -6725,7 +7304,7 @@
     </row>
     <row r="158" spans="2:9">
       <c r="C158" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
@@ -6736,7 +7315,7 @@
     </row>
     <row r="159" spans="2:9">
       <c r="C159" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
@@ -6747,7 +7326,7 @@
     </row>
     <row r="160" spans="2:9">
       <c r="C160" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
@@ -6758,223 +7337,223 @@
     </row>
     <row r="165" spans="1:5" ht="26.25" thickBot="1">
       <c r="A165" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="C167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="C168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="C169" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="C170" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="C171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="C172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="C173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="C174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="C175" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="C176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="3:5">
       <c r="C177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="3:5">
       <c r="C178" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="179" spans="3:5">
       <c r="C179" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="3:5">
       <c r="C180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="3:5">
       <c r="C181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="182" spans="3:5">
       <c r="C182" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="183" spans="3:5">
       <c r="C183" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="184" spans="3:5">
       <c r="C184" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="185" spans="3:5">
       <c r="C185" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" spans="3:5">
       <c r="C186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187" spans="3:5">
       <c r="C187" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="188" spans="3:5">
       <c r="C188" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="3:5">
       <c r="C189" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D189" s="37"/>
     </row>
     <row r="190" spans="3:5">
       <c r="C190" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D190" s="37"/>
       <c r="E190" s="37"/>
     </row>
     <row r="191" spans="3:5">
       <c r="C191" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D191" s="37"/>
       <c r="E191" s="37"/>
     </row>
     <row r="192" spans="3:5">
       <c r="C192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="C193" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D193" s="37"/>
     </row>
     <row r="194" spans="2:4">
       <c r="C194" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D194" s="37"/>
     </row>
     <row r="195" spans="2:4">
       <c r="C195" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="2:4">
       <c r="C196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="C197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="C198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="2:4">
       <c r="C199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="200" spans="2:4">
       <c r="C200" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="201" spans="2:4">
       <c r="C201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="C202" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="C203" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D203" s="38"/>
     </row>
     <row r="204" spans="2:4">
       <c r="C204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="C205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="2:4" ht="30.75" thickBot="1">
       <c r="B207" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="209" spans="2:5" ht="15">
       <c r="B209" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C209" s="19"/>
       <c r="D209" s="19"/>
@@ -6982,12 +7561,12 @@
     </row>
     <row r="212" spans="2:5">
       <c r="C212" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="213" spans="2:5">
       <c r="C213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="214" spans="2:5">
@@ -7017,55 +7596,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75">
       <c r="B19" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75">
       <c r="B20" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75">
@@ -7073,145 +7652,145 @@
     </row>
     <row r="22" spans="2:2" ht="15.75">
       <c r="B22" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="19.5">
       <c r="B34" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="19.5">
       <c r="B35" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="37.5">
       <c r="B47" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15">
       <c r="B50" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="26"/>
     </row>
     <row r="51" spans="2:4" ht="15">
       <c r="B51" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C51" s="26"/>
     </row>
     <row r="54" spans="2:4" ht="17.25">
       <c r="B54" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="26.25" thickBot="1">
       <c r="B56" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="17.25">
       <c r="B57" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15">
       <c r="B59" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="17.25">
       <c r="B60" s="31"/>
       <c r="D60" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15">
       <c r="B61" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15">
       <c r="B62" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15">
@@ -7219,36 +7798,36 @@
     </row>
     <row r="64" spans="2:4" ht="15">
       <c r="B64" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15">
       <c r="B65" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="17.25">
       <c r="B69" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="17.25">
       <c r="B70" s="31"/>
       <c r="D70" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15">
       <c r="B71" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15">
       <c r="B72" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="15">
@@ -7256,22 +7835,22 @@
     </row>
     <row r="74" spans="2:4" ht="15">
       <c r="B74" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15">
       <c r="B75" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="15">
       <c r="B76" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15">
       <c r="B77" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="15">
@@ -7279,17 +7858,17 @@
     </row>
     <row r="79" spans="2:4" ht="15">
       <c r="B79" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15">
       <c r="B80" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="2:14" ht="15">
       <c r="B81" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="15">
@@ -7297,22 +7876,22 @@
     </row>
     <row r="83" spans="2:14" ht="15">
       <c r="B83" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="2:14" ht="15">
       <c r="B84" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="15">
       <c r="B85" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1">
       <c r="B88" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="2:14" ht="14.25" customHeight="1" thickBot="1">
@@ -7320,7 +7899,7 @@
     </row>
     <row r="91" spans="2:14" ht="15">
       <c r="B91" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="2:14" ht="15">
@@ -7331,12 +7910,12 @@
     </row>
     <row r="94" spans="2:14" ht="45">
       <c r="B94" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="2:14" ht="13.5" customHeight="1">
       <c r="B95" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N95" s="42"/>
     </row>
@@ -7348,13 +7927,13 @@
     </row>
     <row r="98" spans="2:14" ht="15">
       <c r="B98" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N98" s="42"/>
     </row>
     <row r="99" spans="2:14" ht="15">
       <c r="B99" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="2:14" ht="15">
@@ -7362,7 +7941,7 @@
     </row>
     <row r="101" spans="2:14" ht="135">
       <c r="B101" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:14" ht="15">
@@ -7370,12 +7949,12 @@
     </row>
     <row r="103" spans="2:14" ht="15">
       <c r="B103" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="2:14" ht="15">
       <c r="B104" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="2:14" ht="13.5" customHeight="1">
@@ -7384,18 +7963,18 @@
     </row>
     <row r="106" spans="2:14" ht="13.5" customHeight="1">
       <c r="B106" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N106" s="42"/>
     </row>
     <row r="107" spans="2:14" ht="15">
       <c r="B107" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="2:14" ht="15">
       <c r="B108" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="2:14" ht="15">
@@ -7403,17 +7982,17 @@
     </row>
     <row r="110" spans="2:14" ht="15">
       <c r="B110" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="2:14" ht="15">
       <c r="B111" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="2:14" ht="15">
       <c r="B112" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="2:14" ht="15">
@@ -7421,22 +8000,22 @@
     </row>
     <row r="114" spans="2:14" ht="15">
       <c r="B114" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="15">
       <c r="B115" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="2:14" ht="15">
       <c r="B116" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="2:14" ht="15">
       <c r="B117" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="2:14" ht="15">
@@ -7444,22 +8023,22 @@
     </row>
     <row r="119" spans="2:14" ht="75">
       <c r="B119" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="2:14" ht="15">
       <c r="B120" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="2:14" ht="15">
       <c r="B121" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="2:14" ht="15">
       <c r="B122" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="13.5" customHeight="1">
@@ -7468,33 +8047,33 @@
     </row>
     <row r="124" spans="2:14" ht="15">
       <c r="B124" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="2:14">
       <c r="B127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="2:14">
       <c r="B128" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N128" s="42"/>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -7513,4 +8092,329 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <drawing r:id="rId10"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="L3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="L4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="24">
+      <c r="L5" s="52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15">
+      <c r="B6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15">
+      <c r="B7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15">
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15">
+      <c r="L9" s="53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15">
+      <c r="B10" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15">
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="24">
+      <c r="C12" t="s">
+        <v>374</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15">
+      <c r="L13" s="54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15">
+      <c r="B14" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="24">
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="16.5">
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="L21" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" t="s">
+        <v>383</v>
+      </c>
+      <c r="M23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="L25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27" t="s">
+        <v>386</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="L28" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" t="s">
+        <v>388</v>
+      </c>
+      <c r="M30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>388</v>
+      </c>
+      <c r="E70" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/python_memo.xlsx
+++ b/python_memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13665" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="django" sheetId="5" r:id="rId5"/>
     <sheet name="jedi-vim" sheetId="6" r:id="rId6"/>
     <sheet name="github command" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="513">
   <si>
     <t>1. python インストール先確認</t>
     <rPh sb="16" eb="17">
@@ -613,43 +614,6 @@
   </si>
   <si>
     <t>'2.0.2'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>python -m venv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> py   </t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3. 仮想環境を作成</t>
@@ -4300,10 +4264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> git push -u origin master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -4357,14 +4317,383 @@
     <t>git fetch origin master</t>
   </si>
   <si>
-    <t xml:space="preserve"> git reset --mixed HEAD</t>
-  </si>
-  <si>
     <t>Other Git Command</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://qiita.com/shuntaro_tamura/items/db1aef9cf9d78db50ffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git reset --mixed HEAD＾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py migrate</t>
+  </si>
+  <si>
+    <t>Operations to perform:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apply all migrations: admin, auth, contenttypes, sessions</t>
+  </si>
+  <si>
+    <t>Running migrations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No migrations to apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Your models have changes that are not yet reflected in a migration, and so won't be applied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Run 'manage.py makemigrations' to make new migrations, and then re-run 'manage.py migrate' to apply them.</t>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py makemigrations hulsite</t>
+  </si>
+  <si>
+    <t>Migrations for 'hulsite':</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hulsite/migrations/0001_initial.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Create model DataBaseInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Create model TableInfo</t>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py sqlmigrate hulsite 0001</t>
+  </si>
+  <si>
+    <t>BEGIN;</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>CREATE TABLE "hulsite_databaseinfo" ("id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "info_type" varchar(15) NOT NULL, "db_filename" varchar(50) NOT NULL, "user_name" varchar(20) NOT NULL, "pub_date" datetime NOT NULL);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE "hulsite_tableinfo" ("id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "table_name" varchar(50) NOT NULL, "info_type_id" integer NOT NULL REFERENCES "hulsite_databaseinfo" ("id") DEFERRABLE INITIALLY DEFERRED);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX "hulsite_tableinfo_info_type_id_7725d939" ON "hulsite_tableinfo" ("info_type_id");</t>
+  </si>
+  <si>
+    <t>COMMIT;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[guest02@v1l06603 hulpy]$ python manage.py migrate                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apply all migrations: admin, auth, contenttypes, hulsite, sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Applying hulsite.0001_initial... OK</t>
+  </si>
+  <si>
+    <t>=-- Create model DataBaseInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=-- Create model TableInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python 3.6.4 (default, Feb 27 2018, 11:49:52) </t>
+  </si>
+  <si>
+    <t>(InteractiveConsole)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from hulsite.models import DataBaseInfo, TableInfo</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; DataBaseInfo.objects.all()</t>
+  </si>
+  <si>
+    <t>&lt;QuerySet []&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from django.utils import timezone</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; q = DataBaseInfo(info_type="SEND",db_filename="Send.db",user_name="test", pub_date=timezone.now(</t>
+  </si>
+  <si>
+    <t>))</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; q.save()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; q.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; q.db_filename                                                                                   </t>
+  </si>
+  <si>
+    <t>'Send.db'</t>
+  </si>
+  <si>
+    <t>&lt;QuerySet [&lt;DataBaseInfo: DataBaseInfo object (1)&gt;]&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; quit()</t>
+  </si>
+  <si>
+    <t>pip install &lt;パッケージ名&gt; --proxy http://xxx.xxx.xxx.xxx:xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows場合</t>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py migrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operations to perform:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apply all migrations: admin, auth, contenttypes, sessions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Running migrations:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  No migrations to apply.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Your models have changes that are not yet reflected in a migration, and so won't be applied.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Run 'manage.py makemigrations' to make new migrations, and then re-run 'manage.py migrate' to apply them.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py makemigrations hulsite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Migrations for 'hulsite':</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  hulsite/migrations/0001_initial.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Create model DataBaseInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Create model TableInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py sqlmigrate hulsite 0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEGIN;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=-- Create model DataBaseInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE "hulsite_databaseinfo" ("id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "info_type" varchar(15) NOT NULL, "db_filename" varchar(50) NOT NULL, "user_name" varchar(20) NOT NULL, "pub_date" datetime NOT NULL);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE "hulsite_tableinfo" ("id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "table_name" varchar(50) NOT NULL, "info_type_id" integer NOT NULL REFERENCES "hulsite_databaseinfo" ("id") DEFERRABLE INITIALLY DEFERRED);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE INDEX "hulsite_tableinfo_info_type_id_7725d939" ON "hulsite_tableinfo" ("info_type_id");</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMMIT;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[guest02@v1l06603 hulpy]$ python manage.py migrate                                                  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apply all migrations: admin, auth, contenttypes, hulsite, sessions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Applying hulsite.0001_initial... OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[guest02@v1l06603 hulpy]$ python manage.py shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Python 3.6.4 (default, Feb 27 2018, 11:49:52) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[GCC 4.4.7 20120313 (Red Hat 4.4.7-18)] on linux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type "help", "copyright", "credits" or "license" for more information.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(InteractiveConsole)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from hulsite.models import DataBaseInfo, TableInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; DataBaseInfo.objects.all()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;QuerySet []&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from django.utils import timezone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; q = DataBaseInfo(info_type="SEND",db_filename="Send.db",user_name="test", pub_date=timezone.now(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; q.save()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; q.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; q.db_filename                                                                                   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'Send.db'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;QuerySet [&lt;DataBaseInfo: DataBaseInfo object (1)&gt;]&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; quit()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応用編</t>
+    <rPh sb="0" eb="2">
+      <t>オウヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://tnamao.hatenablog.com/entry/20100419/1271696802</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>python -m venv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> py   </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install requests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://docs.python-requests.org/en/latest/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requests.get('URL') で GET リクエストができるライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ unset SSH_ASKPASS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> git push -u origin master</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4809,7 +5138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4849,6 +5178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4924,7 +5259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5094,6 +5429,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5481,8 +5822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M118"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5555,6 +5896,16 @@
     <row r="19" spans="1:13">
       <c r="B19" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="C21" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5768,7 +6119,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="B61" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5786,7 +6137,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J65" t="s">
         <v>80</v>
@@ -5861,7 +6212,7 @@
         <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5997,8 +6348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6010,7 +6361,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6024,7 +6375,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6035,92 +6386,92 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -6130,12 +6481,12 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6154,7 +6505,7 @@
   <dimension ref="B5:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6178,7 +6529,7 @@
     </row>
     <row r="6" spans="2:6" ht="94.5">
       <c r="B6" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -6190,7 +6541,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="81">
@@ -6207,7 +6558,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -6268,23 +6619,31 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2"/>
@@ -6353,9 +6712,10 @@
     <hyperlink ref="E6" r:id="rId2"/>
     <hyperlink ref="E8" r:id="rId3"/>
     <hyperlink ref="D15" r:id="rId4" location="i"/>
+    <hyperlink ref="D16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -6364,7 +6724,7 @@
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6376,7 +6736,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="16" t="s">
-        <v>107</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -6388,17 +6748,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J214"/>
+  <dimension ref="A2:R276"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -6416,7 +6776,7 @@
         <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -6424,7 +6784,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -6432,7 +6792,7 @@
         <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -6440,7 +6800,7 @@
         <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -6455,37 +6815,37 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="56" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="17.25">
       <c r="B22" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16.5">
       <c r="C23" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -6496,7 +6856,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="C24" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -6507,7 +6867,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="C25" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -6518,7 +6878,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="C26" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -6529,17 +6889,17 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="17.25">
       <c r="B29" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15">
       <c r="C30" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -6550,7 +6910,7 @@
     </row>
     <row r="31" spans="2:9" ht="15">
       <c r="C31" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -6561,7 +6921,7 @@
     </row>
     <row r="32" spans="2:9" ht="15">
       <c r="C32" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -6572,7 +6932,7 @@
     </row>
     <row r="33" spans="2:9" ht="15">
       <c r="C33" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -6583,7 +6943,7 @@
     </row>
     <row r="34" spans="2:9" ht="15">
       <c r="C34" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -6594,7 +6954,7 @@
     </row>
     <row r="35" spans="2:9" ht="15">
       <c r="C35" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -6605,172 +6965,172 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.75">
       <c r="B41" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.75">
       <c r="B43" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="C44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="D45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="C65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="C66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="C67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="C68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="C69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="C70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="C71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="C73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="C74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="D76" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15">
       <c r="B80" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="15">
       <c r="C85" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -6781,7 +7141,7 @@
     </row>
     <row r="86" spans="2:9" ht="15">
       <c r="C86" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
@@ -6792,7 +7152,7 @@
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="C87" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
@@ -6803,7 +7163,7 @@
     </row>
     <row r="88" spans="2:9" ht="15">
       <c r="C88" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -6814,7 +7174,7 @@
     </row>
     <row r="89" spans="2:9" ht="15">
       <c r="C89" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
@@ -6825,7 +7185,7 @@
     </row>
     <row r="90" spans="2:9" ht="15">
       <c r="C90" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
@@ -6836,7 +7196,7 @@
     </row>
     <row r="91" spans="2:9" ht="15">
       <c r="C91" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
@@ -6847,7 +7207,7 @@
     </row>
     <row r="92" spans="2:9" ht="15">
       <c r="C92" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -6858,7 +7218,7 @@
     </row>
     <row r="93" spans="2:9" ht="15">
       <c r="C93" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
@@ -6869,7 +7229,7 @@
     </row>
     <row r="94" spans="2:9" ht="15">
       <c r="C94" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
@@ -6880,12 +7240,12 @@
     </row>
     <row r="98" spans="2:10">
       <c r="B98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="16.5">
       <c r="C100" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="26"/>
@@ -6897,7 +7257,7 @@
     </row>
     <row r="101" spans="2:10">
       <c r="C101" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
@@ -6909,7 +7269,7 @@
     </row>
     <row r="102" spans="2:10">
       <c r="C102" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
@@ -6931,7 +7291,7 @@
     </row>
     <row r="104" spans="2:10">
       <c r="C104" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -6943,7 +7303,7 @@
     </row>
     <row r="105" spans="2:10">
       <c r="C105" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
@@ -6955,7 +7315,7 @@
     </row>
     <row r="106" spans="2:10">
       <c r="C106" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
@@ -6967,7 +7327,7 @@
     </row>
     <row r="107" spans="2:10">
       <c r="C107" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
@@ -6979,7 +7339,7 @@
     </row>
     <row r="108" spans="2:10">
       <c r="C108" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
@@ -6991,7 +7351,7 @@
     </row>
     <row r="109" spans="2:10">
       <c r="C109" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
@@ -7013,7 +7373,7 @@
     </row>
     <row r="111" spans="2:10">
       <c r="C111" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
@@ -7025,7 +7385,7 @@
     </row>
     <row r="112" spans="2:10">
       <c r="C112" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
@@ -7037,7 +7397,7 @@
     </row>
     <row r="113" spans="2:10">
       <c r="C113" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
@@ -7059,7 +7419,7 @@
     </row>
     <row r="115" spans="2:10">
       <c r="C115" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -7071,7 +7431,7 @@
     </row>
     <row r="116" spans="2:10">
       <c r="C116" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
@@ -7093,17 +7453,17 @@
     </row>
     <row r="120" spans="2:10">
       <c r="B120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="C121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="16.5">
       <c r="C123" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -7112,7 +7472,7 @@
     </row>
     <row r="124" spans="2:10" ht="16.5">
       <c r="C124" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
@@ -7121,7 +7481,7 @@
     </row>
     <row r="125" spans="2:10" ht="16.5">
       <c r="C125" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
@@ -7130,7 +7490,7 @@
     </row>
     <row r="126" spans="2:10" ht="16.5">
       <c r="C126" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
@@ -7139,7 +7499,7 @@
     </row>
     <row r="129" spans="2:7" ht="16.5">
       <c r="C129" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
@@ -7148,7 +7508,7 @@
     </row>
     <row r="130" spans="2:7" ht="16.5">
       <c r="C130" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -7157,7 +7517,7 @@
     </row>
     <row r="131" spans="2:7" ht="16.5">
       <c r="C131" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
@@ -7166,7 +7526,7 @@
     </row>
     <row r="132" spans="2:7" ht="16.5">
       <c r="C132" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
@@ -7175,7 +7535,7 @@
     </row>
     <row r="133" spans="2:7" ht="16.5">
       <c r="C133" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
@@ -7184,12 +7544,12 @@
     </row>
     <row r="136" spans="2:7">
       <c r="B136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="16.5">
       <c r="C138" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="35"/>
@@ -7198,7 +7558,7 @@
     </row>
     <row r="139" spans="2:7">
       <c r="C139" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -7207,7 +7567,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="C140" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
@@ -7223,7 +7583,7 @@
     </row>
     <row r="142" spans="2:7">
       <c r="C142" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
@@ -7232,7 +7592,7 @@
     </row>
     <row r="143" spans="2:7">
       <c r="C143" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -7241,12 +7601,12 @@
     </row>
     <row r="146" spans="2:9">
       <c r="B146" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="16.5">
       <c r="C148" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -7256,22 +7616,22 @@
     </row>
     <row r="150" spans="2:9">
       <c r="C150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="2:9">
       <c r="D151" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="2:9">
       <c r="B153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="2:9">
       <c r="C155" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
@@ -7282,7 +7642,7 @@
     </row>
     <row r="156" spans="2:9">
       <c r="C156" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
@@ -7293,7 +7653,7 @@
     </row>
     <row r="157" spans="2:9">
       <c r="C157" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
@@ -7304,7 +7664,7 @@
     </row>
     <row r="158" spans="2:9">
       <c r="C158" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
@@ -7315,7 +7675,7 @@
     </row>
     <row r="159" spans="2:9">
       <c r="C159" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
@@ -7326,7 +7686,7 @@
     </row>
     <row r="160" spans="2:9">
       <c r="C160" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
@@ -7337,241 +7697,1302 @@
     </row>
     <row r="165" spans="1:5" ht="26.25" thickBot="1">
       <c r="A165" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E165" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="C167" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="C168" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="C169" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="C170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="C171" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="C172" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="C173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="C174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="C175" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="C176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="3:5">
       <c r="C177" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="3:5">
       <c r="C178" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="3:5">
       <c r="C179" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" spans="3:5">
       <c r="C180" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="3:5">
       <c r="C181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="3:5">
       <c r="C182" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" spans="3:5">
       <c r="C183" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="184" spans="3:5">
       <c r="C184" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="3:5">
       <c r="C185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="3:5">
       <c r="C186" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="187" spans="3:5">
       <c r="C187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="3:5">
       <c r="C188" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="189" spans="3:5">
       <c r="C189" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D189" s="37"/>
     </row>
     <row r="190" spans="3:5">
       <c r="C190" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D190" s="37"/>
       <c r="E190" s="37"/>
     </row>
     <row r="191" spans="3:5">
       <c r="C191" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D191" s="37"/>
       <c r="E191" s="37"/>
     </row>
     <row r="192" spans="3:5">
       <c r="C192" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="C193" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D193" s="37"/>
     </row>
     <row r="194" spans="2:4">
       <c r="C194" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D194" s="37"/>
     </row>
     <row r="195" spans="2:4">
       <c r="C195" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="196" spans="2:4">
       <c r="C196" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="C197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="C198" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="2:4">
       <c r="C199" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="2:4">
       <c r="C200" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="2:4">
       <c r="C201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="C202" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="C203" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D203" s="38"/>
     </row>
     <row r="204" spans="2:4">
       <c r="C204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="C205" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="2:4" ht="30.75" thickBot="1">
       <c r="B207" s="39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="209" spans="2:18" ht="15">
+      <c r="B209" s="22" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" ht="15">
-      <c r="B209" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="C209" s="19"/>
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
     </row>
-    <row r="212" spans="2:5">
+    <row r="212" spans="2:18">
       <c r="C212" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="213" spans="2:18">
+      <c r="C213" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="213" spans="2:5">
-      <c r="C213" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5">
+    <row r="214" spans="2:18">
       <c r="C214">
         <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="2:18">
+      <c r="B216" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="218" spans="2:18" ht="15">
+      <c r="B218" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="58"/>
+      <c r="F218" s="58"/>
+      <c r="G218" s="58"/>
+      <c r="H218" s="58"/>
+      <c r="I218" s="58"/>
+      <c r="J218" s="58"/>
+      <c r="K218" s="58"/>
+      <c r="L218" s="58"/>
+      <c r="M218" s="58"/>
+      <c r="N218" s="58"/>
+      <c r="O218" s="58"/>
+      <c r="P218" s="58"/>
+      <c r="Q218" s="58"/>
+      <c r="R218" s="58"/>
+    </row>
+    <row r="219" spans="2:18" ht="15">
+      <c r="B219" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="58"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="58"/>
+      <c r="I219" s="58"/>
+      <c r="J219" s="58"/>
+      <c r="K219" s="58"/>
+      <c r="L219" s="58"/>
+      <c r="M219" s="58"/>
+      <c r="N219" s="58"/>
+      <c r="O219" s="58"/>
+      <c r="P219" s="58"/>
+      <c r="Q219" s="58"/>
+      <c r="R219" s="58"/>
+    </row>
+    <row r="220" spans="2:18" ht="15">
+      <c r="B220" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="58"/>
+      <c r="G220" s="58"/>
+      <c r="H220" s="58"/>
+      <c r="I220" s="58"/>
+      <c r="J220" s="58"/>
+      <c r="K220" s="58"/>
+      <c r="L220" s="58"/>
+      <c r="M220" s="58"/>
+      <c r="N220" s="58"/>
+      <c r="O220" s="58"/>
+      <c r="P220" s="58"/>
+      <c r="Q220" s="58"/>
+      <c r="R220" s="58"/>
+    </row>
+    <row r="221" spans="2:18" ht="15">
+      <c r="B221" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="58"/>
+      <c r="F221" s="58"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="58"/>
+      <c r="I221" s="58"/>
+      <c r="J221" s="58"/>
+      <c r="K221" s="58"/>
+      <c r="L221" s="58"/>
+      <c r="M221" s="58"/>
+      <c r="N221" s="58"/>
+      <c r="O221" s="58"/>
+      <c r="P221" s="58"/>
+      <c r="Q221" s="58"/>
+      <c r="R221" s="58"/>
+    </row>
+    <row r="222" spans="2:18" ht="15">
+      <c r="B222" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="58"/>
+      <c r="F222" s="58"/>
+      <c r="G222" s="58"/>
+      <c r="H222" s="58"/>
+      <c r="I222" s="58"/>
+      <c r="J222" s="58"/>
+      <c r="K222" s="58"/>
+      <c r="L222" s="58"/>
+      <c r="M222" s="58"/>
+      <c r="N222" s="58"/>
+      <c r="O222" s="58"/>
+      <c r="P222" s="58"/>
+      <c r="Q222" s="58"/>
+      <c r="R222" s="58"/>
+    </row>
+    <row r="223" spans="2:18" ht="15">
+      <c r="B223" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="58"/>
+      <c r="F223" s="58"/>
+      <c r="G223" s="58"/>
+      <c r="H223" s="58"/>
+      <c r="I223" s="58"/>
+      <c r="J223" s="58"/>
+      <c r="K223" s="58"/>
+      <c r="L223" s="58"/>
+      <c r="M223" s="58"/>
+      <c r="N223" s="58"/>
+      <c r="O223" s="58"/>
+      <c r="P223" s="58"/>
+      <c r="Q223" s="58"/>
+      <c r="R223" s="58"/>
+    </row>
+    <row r="224" spans="2:18" ht="15">
+      <c r="B224" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="58"/>
+      <c r="G224" s="58"/>
+      <c r="H224" s="58"/>
+      <c r="I224" s="58"/>
+      <c r="J224" s="58"/>
+      <c r="K224" s="58"/>
+      <c r="L224" s="58"/>
+      <c r="M224" s="58"/>
+      <c r="N224" s="58"/>
+      <c r="O224" s="58"/>
+      <c r="P224" s="58"/>
+      <c r="Q224" s="58"/>
+      <c r="R224" s="58"/>
+    </row>
+    <row r="225" spans="2:18" ht="15">
+      <c r="B225" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="58"/>
+      <c r="F225" s="58"/>
+      <c r="G225" s="58"/>
+      <c r="H225" s="58"/>
+      <c r="I225" s="58"/>
+      <c r="J225" s="58"/>
+      <c r="K225" s="58"/>
+      <c r="L225" s="58"/>
+      <c r="M225" s="58"/>
+      <c r="N225" s="58"/>
+      <c r="O225" s="58"/>
+      <c r="P225" s="58"/>
+      <c r="Q225" s="58"/>
+      <c r="R225" s="58"/>
+    </row>
+    <row r="226" spans="2:18" ht="15">
+      <c r="B226" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
+      <c r="E226" s="58"/>
+      <c r="F226" s="58"/>
+      <c r="G226" s="58"/>
+      <c r="H226" s="58"/>
+      <c r="I226" s="58"/>
+      <c r="J226" s="58"/>
+      <c r="K226" s="58"/>
+      <c r="L226" s="58"/>
+      <c r="M226" s="58"/>
+      <c r="N226" s="58"/>
+      <c r="O226" s="58"/>
+      <c r="P226" s="58"/>
+      <c r="Q226" s="58"/>
+      <c r="R226" s="58"/>
+    </row>
+    <row r="227" spans="2:18" ht="15">
+      <c r="B227" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="58"/>
+      <c r="F227" s="58"/>
+      <c r="G227" s="58"/>
+      <c r="H227" s="58"/>
+      <c r="I227" s="58"/>
+      <c r="J227" s="58"/>
+      <c r="K227" s="58"/>
+      <c r="L227" s="58"/>
+      <c r="M227" s="58"/>
+      <c r="N227" s="58"/>
+      <c r="O227" s="58"/>
+      <c r="P227" s="58"/>
+      <c r="Q227" s="58"/>
+      <c r="R227" s="58"/>
+    </row>
+    <row r="228" spans="2:18" ht="15">
+      <c r="B228" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="58"/>
+      <c r="F228" s="58"/>
+      <c r="G228" s="58"/>
+      <c r="H228" s="58"/>
+      <c r="I228" s="58"/>
+      <c r="J228" s="58"/>
+      <c r="K228" s="58"/>
+      <c r="L228" s="58"/>
+      <c r="M228" s="58"/>
+      <c r="N228" s="58"/>
+      <c r="O228" s="58"/>
+      <c r="P228" s="58"/>
+      <c r="Q228" s="58"/>
+      <c r="R228" s="58"/>
+    </row>
+    <row r="229" spans="2:18" ht="15">
+      <c r="B229" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
+      <c r="E229" s="58"/>
+      <c r="F229" s="58"/>
+      <c r="G229" s="58"/>
+      <c r="H229" s="58"/>
+      <c r="I229" s="58"/>
+      <c r="J229" s="58"/>
+      <c r="K229" s="58"/>
+      <c r="L229" s="58"/>
+      <c r="M229" s="58"/>
+      <c r="N229" s="58"/>
+      <c r="O229" s="58"/>
+      <c r="P229" s="58"/>
+      <c r="Q229" s="58"/>
+      <c r="R229" s="58"/>
+    </row>
+    <row r="230" spans="2:18" ht="15">
+      <c r="B230" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="58"/>
+      <c r="F230" s="58"/>
+      <c r="G230" s="58"/>
+      <c r="H230" s="58"/>
+      <c r="I230" s="58"/>
+      <c r="J230" s="58"/>
+      <c r="K230" s="58"/>
+      <c r="L230" s="58"/>
+      <c r="M230" s="58"/>
+      <c r="N230" s="58"/>
+      <c r="O230" s="58"/>
+      <c r="P230" s="58"/>
+      <c r="Q230" s="58"/>
+      <c r="R230" s="58"/>
+    </row>
+    <row r="231" spans="2:18" ht="15">
+      <c r="B231" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
+      <c r="E231" s="58"/>
+      <c r="F231" s="58"/>
+      <c r="G231" s="58"/>
+      <c r="H231" s="58"/>
+      <c r="I231" s="58"/>
+      <c r="J231" s="58"/>
+      <c r="K231" s="58"/>
+      <c r="L231" s="58"/>
+      <c r="M231" s="58"/>
+      <c r="N231" s="58"/>
+      <c r="O231" s="58"/>
+      <c r="P231" s="58"/>
+      <c r="Q231" s="58"/>
+      <c r="R231" s="58"/>
+    </row>
+    <row r="232" spans="2:18" ht="15">
+      <c r="B232" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="58"/>
+      <c r="F232" s="58"/>
+      <c r="G232" s="58"/>
+      <c r="H232" s="58"/>
+      <c r="I232" s="58"/>
+      <c r="J232" s="58"/>
+      <c r="K232" s="58"/>
+      <c r="L232" s="58"/>
+      <c r="M232" s="58"/>
+      <c r="N232" s="58"/>
+      <c r="O232" s="58"/>
+      <c r="P232" s="58"/>
+      <c r="Q232" s="58"/>
+      <c r="R232" s="58"/>
+    </row>
+    <row r="233" spans="2:18" ht="15">
+      <c r="B233" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
+      <c r="E233" s="58"/>
+      <c r="F233" s="58"/>
+      <c r="G233" s="58"/>
+      <c r="H233" s="58"/>
+      <c r="I233" s="58"/>
+      <c r="J233" s="58"/>
+      <c r="K233" s="58"/>
+      <c r="L233" s="58"/>
+      <c r="M233" s="58"/>
+      <c r="N233" s="58"/>
+      <c r="O233" s="58"/>
+      <c r="P233" s="58"/>
+      <c r="Q233" s="58"/>
+      <c r="R233" s="58"/>
+    </row>
+    <row r="234" spans="2:18" ht="15">
+      <c r="B234" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="58"/>
+      <c r="F234" s="58"/>
+      <c r="G234" s="58"/>
+      <c r="H234" s="58"/>
+      <c r="I234" s="58"/>
+      <c r="J234" s="58"/>
+      <c r="K234" s="58"/>
+      <c r="L234" s="58"/>
+      <c r="M234" s="58"/>
+      <c r="N234" s="58"/>
+      <c r="O234" s="58"/>
+      <c r="P234" s="58"/>
+      <c r="Q234" s="58"/>
+      <c r="R234" s="58"/>
+    </row>
+    <row r="235" spans="2:18" ht="15">
+      <c r="B235" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="58"/>
+      <c r="F235" s="58"/>
+      <c r="G235" s="58"/>
+      <c r="H235" s="58"/>
+      <c r="I235" s="58"/>
+      <c r="J235" s="58"/>
+      <c r="K235" s="58"/>
+      <c r="L235" s="58"/>
+      <c r="M235" s="58"/>
+      <c r="N235" s="58"/>
+      <c r="O235" s="58"/>
+      <c r="P235" s="58"/>
+      <c r="Q235" s="58"/>
+      <c r="R235" s="58"/>
+    </row>
+    <row r="236" spans="2:18" ht="15">
+      <c r="B236" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="58"/>
+      <c r="F236" s="58"/>
+      <c r="G236" s="58"/>
+      <c r="H236" s="58"/>
+      <c r="I236" s="58"/>
+      <c r="J236" s="58"/>
+      <c r="K236" s="58"/>
+      <c r="L236" s="58"/>
+      <c r="M236" s="58"/>
+      <c r="N236" s="58"/>
+      <c r="O236" s="58"/>
+      <c r="P236" s="58"/>
+      <c r="Q236" s="58"/>
+      <c r="R236" s="58"/>
+    </row>
+    <row r="237" spans="2:18" ht="15">
+      <c r="B237" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C237" s="22"/>
+      <c r="D237" s="22"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="58"/>
+      <c r="G237" s="58"/>
+      <c r="H237" s="58"/>
+      <c r="I237" s="58"/>
+      <c r="J237" s="58"/>
+      <c r="K237" s="58"/>
+      <c r="L237" s="58"/>
+      <c r="M237" s="58"/>
+      <c r="N237" s="58"/>
+      <c r="O237" s="58"/>
+      <c r="P237" s="58"/>
+      <c r="Q237" s="58"/>
+      <c r="R237" s="58"/>
+    </row>
+    <row r="238" spans="2:18" ht="15">
+      <c r="B238" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="58"/>
+      <c r="G238" s="58"/>
+      <c r="H238" s="58"/>
+      <c r="I238" s="58"/>
+      <c r="J238" s="58"/>
+      <c r="K238" s="58"/>
+      <c r="L238" s="58"/>
+      <c r="M238" s="58"/>
+      <c r="N238" s="58"/>
+      <c r="O238" s="58"/>
+      <c r="P238" s="58"/>
+      <c r="Q238" s="58"/>
+      <c r="R238" s="58"/>
+    </row>
+    <row r="239" spans="2:18" ht="15">
+      <c r="B239" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="58"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="58"/>
+      <c r="I239" s="58"/>
+      <c r="J239" s="58"/>
+      <c r="K239" s="58"/>
+      <c r="L239" s="58"/>
+      <c r="M239" s="58"/>
+      <c r="N239" s="58"/>
+      <c r="O239" s="58"/>
+      <c r="P239" s="58"/>
+      <c r="Q239" s="58"/>
+      <c r="R239" s="58"/>
+    </row>
+    <row r="240" spans="2:18" ht="15">
+      <c r="B240" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="58"/>
+      <c r="G240" s="58"/>
+      <c r="H240" s="58"/>
+      <c r="I240" s="58"/>
+      <c r="J240" s="58"/>
+      <c r="K240" s="58"/>
+      <c r="L240" s="58"/>
+      <c r="M240" s="58"/>
+      <c r="N240" s="58"/>
+      <c r="O240" s="58"/>
+      <c r="P240" s="58"/>
+      <c r="Q240" s="58"/>
+      <c r="R240" s="58"/>
+    </row>
+    <row r="241" spans="2:18" ht="15">
+      <c r="B241" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="C241" s="22"/>
+      <c r="D241" s="22"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="58"/>
+      <c r="G241" s="58"/>
+      <c r="H241" s="58"/>
+      <c r="I241" s="58"/>
+      <c r="J241" s="58"/>
+      <c r="K241" s="58"/>
+      <c r="L241" s="58"/>
+      <c r="M241" s="58"/>
+      <c r="N241" s="58"/>
+      <c r="O241" s="58"/>
+      <c r="P241" s="58"/>
+      <c r="Q241" s="58"/>
+      <c r="R241" s="58"/>
+    </row>
+    <row r="242" spans="2:18" ht="15">
+      <c r="B242" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C242" s="22"/>
+      <c r="D242" s="22"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="58"/>
+      <c r="G242" s="58"/>
+      <c r="H242" s="58"/>
+      <c r="I242" s="58"/>
+      <c r="J242" s="58"/>
+      <c r="K242" s="58"/>
+      <c r="L242" s="58"/>
+      <c r="M242" s="58"/>
+      <c r="N242" s="58"/>
+      <c r="O242" s="58"/>
+      <c r="P242" s="58"/>
+      <c r="Q242" s="58"/>
+      <c r="R242" s="58"/>
+    </row>
+    <row r="243" spans="2:18" ht="15">
+      <c r="B243" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="58"/>
+      <c r="F243" s="58"/>
+      <c r="G243" s="58"/>
+      <c r="H243" s="58"/>
+      <c r="I243" s="58"/>
+      <c r="J243" s="58"/>
+      <c r="K243" s="58"/>
+      <c r="L243" s="58"/>
+      <c r="M243" s="58"/>
+      <c r="N243" s="58"/>
+      <c r="O243" s="58"/>
+      <c r="P243" s="58"/>
+      <c r="Q243" s="58"/>
+      <c r="R243" s="58"/>
+    </row>
+    <row r="244" spans="2:18" ht="15">
+      <c r="B244" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="C244" s="22"/>
+      <c r="D244" s="22"/>
+      <c r="E244" s="58"/>
+      <c r="F244" s="58"/>
+      <c r="G244" s="58"/>
+      <c r="H244" s="58"/>
+      <c r="I244" s="58"/>
+      <c r="J244" s="58"/>
+      <c r="K244" s="58"/>
+      <c r="L244" s="58"/>
+      <c r="M244" s="58"/>
+      <c r="N244" s="58"/>
+      <c r="O244" s="58"/>
+      <c r="P244" s="58"/>
+      <c r="Q244" s="58"/>
+      <c r="R244" s="58"/>
+    </row>
+    <row r="245" spans="2:18" ht="15">
+      <c r="B245" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C245" s="22"/>
+      <c r="D245" s="22"/>
+      <c r="E245" s="58"/>
+      <c r="F245" s="58"/>
+      <c r="G245" s="58"/>
+      <c r="H245" s="58"/>
+      <c r="I245" s="58"/>
+      <c r="J245" s="58"/>
+      <c r="K245" s="58"/>
+      <c r="L245" s="58"/>
+      <c r="M245" s="58"/>
+      <c r="N245" s="58"/>
+      <c r="O245" s="58"/>
+      <c r="P245" s="58"/>
+      <c r="Q245" s="58"/>
+      <c r="R245" s="58"/>
+    </row>
+    <row r="246" spans="2:18" ht="15">
+      <c r="B246" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C246" s="22"/>
+      <c r="D246" s="22"/>
+      <c r="E246" s="58"/>
+      <c r="F246" s="58"/>
+      <c r="G246" s="58"/>
+      <c r="H246" s="58"/>
+      <c r="I246" s="58"/>
+      <c r="J246" s="58"/>
+      <c r="K246" s="58"/>
+      <c r="L246" s="58"/>
+      <c r="M246" s="58"/>
+      <c r="N246" s="58"/>
+      <c r="O246" s="58"/>
+      <c r="P246" s="58"/>
+      <c r="Q246" s="58"/>
+      <c r="R246" s="58"/>
+    </row>
+    <row r="247" spans="2:18" ht="15">
+      <c r="B247" s="22"/>
+      <c r="C247" s="22"/>
+      <c r="D247" s="22"/>
+      <c r="E247" s="58"/>
+      <c r="F247" s="58"/>
+      <c r="G247" s="58"/>
+      <c r="H247" s="58"/>
+      <c r="I247" s="58"/>
+      <c r="J247" s="58"/>
+      <c r="K247" s="58"/>
+      <c r="L247" s="58"/>
+      <c r="M247" s="58"/>
+      <c r="N247" s="58"/>
+      <c r="O247" s="58"/>
+      <c r="P247" s="58"/>
+      <c r="Q247" s="58"/>
+      <c r="R247" s="58"/>
+    </row>
+    <row r="248" spans="2:18" ht="15">
+      <c r="B248" s="22"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
+      <c r="E248" s="58"/>
+      <c r="F248" s="58"/>
+      <c r="G248" s="58"/>
+      <c r="H248" s="58"/>
+      <c r="I248" s="58"/>
+      <c r="J248" s="58"/>
+      <c r="K248" s="58"/>
+      <c r="L248" s="58"/>
+      <c r="M248" s="58"/>
+      <c r="N248" s="58"/>
+      <c r="O248" s="58"/>
+      <c r="P248" s="58"/>
+      <c r="Q248" s="58"/>
+      <c r="R248" s="58"/>
+    </row>
+    <row r="249" spans="2:18" ht="15">
+      <c r="B249" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
+      <c r="E249" s="58"/>
+      <c r="F249" s="58"/>
+      <c r="G249" s="58"/>
+      <c r="H249" s="58"/>
+      <c r="I249" s="58"/>
+      <c r="J249" s="58"/>
+      <c r="K249" s="58"/>
+      <c r="L249" s="58"/>
+      <c r="M249" s="58"/>
+      <c r="N249" s="58"/>
+      <c r="O249" s="58"/>
+      <c r="P249" s="58"/>
+      <c r="Q249" s="58"/>
+      <c r="R249" s="58"/>
+    </row>
+    <row r="250" spans="2:18" ht="15">
+      <c r="B250" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C250" s="22"/>
+      <c r="D250" s="22"/>
+      <c r="E250" s="58"/>
+      <c r="F250" s="58"/>
+      <c r="G250" s="58"/>
+      <c r="H250" s="58"/>
+      <c r="I250" s="58"/>
+      <c r="J250" s="58"/>
+      <c r="K250" s="58"/>
+      <c r="L250" s="58"/>
+      <c r="M250" s="58"/>
+      <c r="N250" s="58"/>
+      <c r="O250" s="58"/>
+      <c r="P250" s="58"/>
+      <c r="Q250" s="58"/>
+      <c r="R250" s="58"/>
+    </row>
+    <row r="251" spans="2:18" ht="15">
+      <c r="B251" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C251" s="22"/>
+      <c r="D251" s="22"/>
+      <c r="E251" s="58"/>
+      <c r="F251" s="58"/>
+      <c r="G251" s="58"/>
+      <c r="H251" s="58"/>
+      <c r="I251" s="58"/>
+      <c r="J251" s="58"/>
+      <c r="K251" s="58"/>
+      <c r="L251" s="58"/>
+      <c r="M251" s="58"/>
+      <c r="N251" s="58"/>
+      <c r="O251" s="58"/>
+      <c r="P251" s="58"/>
+      <c r="Q251" s="58"/>
+      <c r="R251" s="58"/>
+    </row>
+    <row r="252" spans="2:18" ht="15">
+      <c r="B252" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C252" s="22"/>
+      <c r="D252" s="22"/>
+      <c r="E252" s="58"/>
+      <c r="F252" s="58"/>
+      <c r="G252" s="58"/>
+      <c r="H252" s="58"/>
+      <c r="I252" s="58"/>
+      <c r="J252" s="58"/>
+      <c r="K252" s="58"/>
+      <c r="L252" s="58"/>
+      <c r="M252" s="58"/>
+      <c r="N252" s="58"/>
+      <c r="O252" s="58"/>
+      <c r="P252" s="58"/>
+      <c r="Q252" s="58"/>
+      <c r="R252" s="58"/>
+    </row>
+    <row r="253" spans="2:18" ht="15">
+      <c r="B253" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="C253" s="22"/>
+      <c r="D253" s="22"/>
+      <c r="E253" s="58"/>
+      <c r="F253" s="58"/>
+      <c r="G253" s="58"/>
+      <c r="H253" s="58"/>
+      <c r="I253" s="58"/>
+      <c r="J253" s="58"/>
+      <c r="K253" s="58"/>
+      <c r="L253" s="58"/>
+      <c r="M253" s="58"/>
+      <c r="N253" s="58"/>
+      <c r="O253" s="58"/>
+      <c r="P253" s="58"/>
+      <c r="Q253" s="58"/>
+      <c r="R253" s="58"/>
+    </row>
+    <row r="254" spans="2:18" ht="15">
+      <c r="B254" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="58"/>
+      <c r="F254" s="58"/>
+      <c r="G254" s="58"/>
+      <c r="H254" s="58"/>
+      <c r="I254" s="58"/>
+      <c r="J254" s="58"/>
+      <c r="K254" s="58"/>
+      <c r="L254" s="58"/>
+      <c r="M254" s="58"/>
+      <c r="N254" s="58"/>
+      <c r="O254" s="58"/>
+      <c r="P254" s="58"/>
+      <c r="Q254" s="58"/>
+      <c r="R254" s="58"/>
+    </row>
+    <row r="255" spans="2:18" ht="15">
+      <c r="B255" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C255" s="22"/>
+      <c r="D255" s="22"/>
+      <c r="E255" s="58"/>
+      <c r="F255" s="58"/>
+      <c r="G255" s="58"/>
+      <c r="H255" s="58"/>
+      <c r="I255" s="58"/>
+      <c r="J255" s="58"/>
+      <c r="K255" s="58"/>
+      <c r="L255" s="58"/>
+      <c r="M255" s="58"/>
+      <c r="N255" s="58"/>
+      <c r="O255" s="58"/>
+      <c r="P255" s="58"/>
+      <c r="Q255" s="58"/>
+      <c r="R255" s="58"/>
+    </row>
+    <row r="256" spans="2:18" ht="15">
+      <c r="B256" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C256" s="22"/>
+      <c r="D256" s="22"/>
+      <c r="E256" s="58"/>
+      <c r="F256" s="58"/>
+      <c r="G256" s="58"/>
+      <c r="H256" s="58"/>
+      <c r="I256" s="58"/>
+      <c r="J256" s="58"/>
+      <c r="K256" s="58"/>
+      <c r="L256" s="58"/>
+      <c r="M256" s="58"/>
+      <c r="N256" s="58"/>
+      <c r="O256" s="58"/>
+      <c r="P256" s="58"/>
+      <c r="Q256" s="58"/>
+      <c r="R256" s="58"/>
+    </row>
+    <row r="257" spans="2:18" ht="15">
+      <c r="B257" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C257" s="22"/>
+      <c r="D257" s="22"/>
+      <c r="E257" s="58"/>
+      <c r="F257" s="58"/>
+      <c r="G257" s="58"/>
+      <c r="H257" s="58"/>
+      <c r="I257" s="58"/>
+      <c r="J257" s="58"/>
+      <c r="K257" s="58"/>
+      <c r="L257" s="58"/>
+      <c r="M257" s="58"/>
+      <c r="N257" s="58"/>
+      <c r="O257" s="58"/>
+      <c r="P257" s="58"/>
+      <c r="Q257" s="58"/>
+      <c r="R257" s="58"/>
+    </row>
+    <row r="258" spans="2:18" ht="15">
+      <c r="B258" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="58"/>
+      <c r="F258" s="58"/>
+      <c r="G258" s="58"/>
+      <c r="H258" s="58"/>
+      <c r="I258" s="58"/>
+      <c r="J258" s="58"/>
+      <c r="K258" s="58"/>
+      <c r="L258" s="58"/>
+      <c r="M258" s="58"/>
+      <c r="N258" s="58"/>
+      <c r="O258" s="58"/>
+      <c r="P258" s="58"/>
+      <c r="Q258" s="58"/>
+      <c r="R258" s="58"/>
+    </row>
+    <row r="259" spans="2:18" ht="15">
+      <c r="B259" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22"/>
+      <c r="E259" s="58"/>
+      <c r="F259" s="58"/>
+      <c r="G259" s="58"/>
+      <c r="H259" s="58"/>
+      <c r="I259" s="58"/>
+      <c r="J259" s="58"/>
+      <c r="K259" s="58"/>
+      <c r="L259" s="58"/>
+      <c r="M259" s="58"/>
+      <c r="N259" s="58"/>
+      <c r="O259" s="58"/>
+      <c r="P259" s="58"/>
+      <c r="Q259" s="58"/>
+      <c r="R259" s="58"/>
+    </row>
+    <row r="260" spans="2:18" ht="15">
+      <c r="B260" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C260" s="22"/>
+      <c r="D260" s="22"/>
+      <c r="E260" s="58"/>
+      <c r="F260" s="58"/>
+      <c r="G260" s="58"/>
+      <c r="H260" s="58"/>
+      <c r="I260" s="58"/>
+      <c r="J260" s="58"/>
+      <c r="K260" s="58"/>
+      <c r="L260" s="58"/>
+      <c r="M260" s="58"/>
+      <c r="N260" s="58"/>
+      <c r="O260" s="58"/>
+      <c r="P260" s="58"/>
+      <c r="Q260" s="58"/>
+      <c r="R260" s="58"/>
+    </row>
+    <row r="261" spans="2:18" ht="15">
+      <c r="B261" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="58"/>
+      <c r="G261" s="58"/>
+      <c r="H261" s="58"/>
+      <c r="I261" s="58"/>
+      <c r="J261" s="58"/>
+      <c r="K261" s="58"/>
+      <c r="L261" s="58"/>
+      <c r="M261" s="58"/>
+      <c r="N261" s="58"/>
+      <c r="O261" s="58"/>
+      <c r="P261" s="58"/>
+      <c r="Q261" s="58"/>
+      <c r="R261" s="58"/>
+    </row>
+    <row r="262" spans="2:18" ht="15">
+      <c r="B262" s="22">
+        <v>1</v>
+      </c>
+      <c r="C262" s="22"/>
+      <c r="D262" s="22"/>
+      <c r="E262" s="58"/>
+      <c r="F262" s="58"/>
+      <c r="G262" s="58"/>
+      <c r="H262" s="58"/>
+      <c r="I262" s="58"/>
+      <c r="J262" s="58"/>
+      <c r="K262" s="58"/>
+      <c r="L262" s="58"/>
+      <c r="M262" s="58"/>
+      <c r="N262" s="58"/>
+      <c r="O262" s="58"/>
+      <c r="P262" s="58"/>
+      <c r="Q262" s="58"/>
+      <c r="R262" s="58"/>
+    </row>
+    <row r="263" spans="2:18" ht="15">
+      <c r="B263" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="58"/>
+      <c r="F263" s="58"/>
+      <c r="G263" s="58"/>
+      <c r="H263" s="58"/>
+      <c r="I263" s="58"/>
+      <c r="J263" s="58"/>
+      <c r="K263" s="58"/>
+      <c r="L263" s="58"/>
+      <c r="M263" s="58"/>
+      <c r="N263" s="58"/>
+      <c r="O263" s="58"/>
+      <c r="P263" s="58"/>
+      <c r="Q263" s="58"/>
+      <c r="R263" s="58"/>
+    </row>
+    <row r="264" spans="2:18" ht="15">
+      <c r="B264" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="58"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="58"/>
+      <c r="I264" s="58"/>
+      <c r="J264" s="58"/>
+      <c r="K264" s="58"/>
+      <c r="L264" s="58"/>
+      <c r="M264" s="58"/>
+      <c r="N264" s="58"/>
+      <c r="O264" s="58"/>
+      <c r="P264" s="58"/>
+      <c r="Q264" s="58"/>
+      <c r="R264" s="58"/>
+    </row>
+    <row r="265" spans="2:18" ht="15">
+      <c r="B265" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
+      <c r="E265" s="58"/>
+      <c r="F265" s="58"/>
+      <c r="G265" s="58"/>
+      <c r="H265" s="58"/>
+      <c r="I265" s="58"/>
+      <c r="J265" s="58"/>
+      <c r="K265" s="58"/>
+      <c r="L265" s="58"/>
+      <c r="M265" s="58"/>
+      <c r="N265" s="58"/>
+      <c r="O265" s="58"/>
+      <c r="P265" s="58"/>
+      <c r="Q265" s="58"/>
+      <c r="R265" s="58"/>
+    </row>
+    <row r="266" spans="2:18" ht="15">
+      <c r="B266" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C266" s="22"/>
+      <c r="D266" s="22"/>
+      <c r="E266" s="58"/>
+      <c r="F266" s="58"/>
+      <c r="G266" s="58"/>
+      <c r="H266" s="58"/>
+      <c r="I266" s="58"/>
+      <c r="J266" s="58"/>
+      <c r="K266" s="58"/>
+      <c r="L266" s="58"/>
+      <c r="M266" s="58"/>
+      <c r="N266" s="58"/>
+      <c r="O266" s="58"/>
+      <c r="P266" s="58"/>
+      <c r="Q266" s="58"/>
+      <c r="R266" s="58"/>
+    </row>
+    <row r="267" spans="2:18" ht="15">
+      <c r="B267" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C267" s="22"/>
+      <c r="D267" s="22"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="58"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="58"/>
+      <c r="I267" s="58"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="58"/>
+      <c r="L267" s="58"/>
+      <c r="M267" s="58"/>
+      <c r="N267" s="58"/>
+      <c r="O267" s="58"/>
+      <c r="P267" s="58"/>
+      <c r="Q267" s="58"/>
+      <c r="R267" s="58"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="B276" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7585,8 +9006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7596,55 +9017,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75">
       <c r="B19" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75">
       <c r="B20" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75">
@@ -7652,145 +9073,145 @@
     </row>
     <row r="22" spans="2:2" ht="15.75">
       <c r="B22" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="19.5">
       <c r="B34" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="19.5">
       <c r="B35" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="37.5">
       <c r="B47" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15">
       <c r="B50" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" s="26"/>
     </row>
     <row r="51" spans="2:4" ht="15">
       <c r="B51" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C51" s="26"/>
     </row>
     <row r="54" spans="2:4" ht="17.25">
       <c r="B54" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="26.25" thickBot="1">
       <c r="B56" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="17.25">
       <c r="B57" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15">
       <c r="B59" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="17.25">
       <c r="B60" s="31"/>
       <c r="D60" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15">
       <c r="B61" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15">
       <c r="B62" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15">
@@ -7798,36 +9219,36 @@
     </row>
     <row r="64" spans="2:4" ht="15">
       <c r="B64" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15">
       <c r="B65" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="17.25">
       <c r="B69" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="17.25">
       <c r="B70" s="31"/>
       <c r="D70" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15">
       <c r="B71" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15">
       <c r="B72" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="15">
@@ -7835,22 +9256,22 @@
     </row>
     <row r="74" spans="2:4" ht="15">
       <c r="B74" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15">
       <c r="B75" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="15">
       <c r="B76" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15">
       <c r="B77" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="15">
@@ -7858,17 +9279,17 @@
     </row>
     <row r="79" spans="2:4" ht="15">
       <c r="B79" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15">
       <c r="B80" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="2:14" ht="15">
       <c r="B81" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="15">
@@ -7876,22 +9297,22 @@
     </row>
     <row r="83" spans="2:14" ht="15">
       <c r="B83" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="2:14" ht="15">
       <c r="B84" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="15">
       <c r="B85" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="2:14" ht="13.5" customHeight="1">
       <c r="B88" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="2:14" ht="14.25" customHeight="1" thickBot="1">
@@ -7899,7 +9320,7 @@
     </row>
     <row r="91" spans="2:14" ht="15">
       <c r="B91" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="2:14" ht="15">
@@ -7910,12 +9331,12 @@
     </row>
     <row r="94" spans="2:14" ht="45">
       <c r="B94" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="2:14" ht="13.5" customHeight="1">
       <c r="B95" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N95" s="42"/>
     </row>
@@ -7927,13 +9348,13 @@
     </row>
     <row r="98" spans="2:14" ht="15">
       <c r="B98" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N98" s="42"/>
     </row>
     <row r="99" spans="2:14" ht="15">
       <c r="B99" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="2:14" ht="15">
@@ -7941,7 +9362,7 @@
     </row>
     <row r="101" spans="2:14" ht="135">
       <c r="B101" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="2:14" ht="15">
@@ -7949,12 +9370,12 @@
     </row>
     <row r="103" spans="2:14" ht="15">
       <c r="B103" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="2:14" ht="15">
       <c r="B104" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="2:14" ht="13.5" customHeight="1">
@@ -7963,18 +9384,18 @@
     </row>
     <row r="106" spans="2:14" ht="13.5" customHeight="1">
       <c r="B106" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N106" s="42"/>
     </row>
     <row r="107" spans="2:14" ht="15">
       <c r="B107" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="2:14" ht="15">
       <c r="B108" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="2:14" ht="15">
@@ -7982,17 +9403,17 @@
     </row>
     <row r="110" spans="2:14" ht="15">
       <c r="B110" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="2:14" ht="15">
       <c r="B111" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="2:14" ht="15">
       <c r="B112" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="2:14" ht="15">
@@ -8000,22 +9421,22 @@
     </row>
     <row r="114" spans="2:14" ht="15">
       <c r="B114" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="15">
       <c r="B115" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="2:14" ht="15">
       <c r="B116" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="2:14" ht="15">
       <c r="B117" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="2:14" ht="15">
@@ -8023,22 +9444,22 @@
     </row>
     <row r="119" spans="2:14" ht="75">
       <c r="B119" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="2:14" ht="15">
       <c r="B120" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="2:14" ht="15">
       <c r="B121" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="2:14" ht="15">
       <c r="B122" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="13.5" customHeight="1">
@@ -8047,33 +9468,33 @@
     </row>
     <row r="124" spans="2:14" ht="15">
       <c r="B124" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="2:14">
       <c r="B127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="2:14">
       <c r="B128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N128" s="42"/>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8098,163 +9519,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N59" sqref="M59:N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:12">
       <c r="L3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="L4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="24">
       <c r="L5" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15">
       <c r="B6" t="s">
+        <v>362</v>
+      </c>
+      <c r="L6" s="53" t="s">
         <v>363</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15">
       <c r="B7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L7" s="54" t="s">
         <v>365</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15">
       <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="53" t="s">
         <v>367</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15">
       <c r="L9" s="53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15">
       <c r="B10" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="54" t="s">
         <v>370</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15">
       <c r="C11" t="s">
+        <v>371</v>
+      </c>
+      <c r="L11" s="54" t="s">
         <v>372</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="24">
       <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L12" s="52" t="s">
         <v>374</v>
-      </c>
-      <c r="L12" s="52" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15">
       <c r="L13" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15">
       <c r="B14" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L14" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="24">
       <c r="C15" t="s">
+        <v>376</v>
+      </c>
+      <c r="L15" s="52" t="s">
         <v>377</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.5">
       <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="L16" s="55" t="s">
         <v>379</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="L21" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="C23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="C24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="L25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="C27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="L28" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>421</v>
@@ -8262,151 +9683,151 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M30" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="E70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>415</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -8417,4 +9838,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A2:XFD51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>